--- a/sources/Arabic_Standard_data.xlsx
+++ b/sources/Arabic_Standard_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="564">
   <si>
     <t>language_no</t>
   </si>
@@ -1635,82 +1635,85 @@
     <t>NOM</t>
   </si>
   <si>
-    <t>bi</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
     <t>TR</t>
   </si>
   <si>
-    <t>li</t>
-  </si>
-  <si>
-    <t>alaa</t>
-  </si>
-  <si>
-    <t>maa</t>
-  </si>
-  <si>
-    <t>inda</t>
-  </si>
-  <si>
-    <t>an</t>
-  </si>
-  <si>
     <t>ACC</t>
   </si>
   <si>
-    <t>ilaa</t>
-  </si>
-  <si>
-    <t>fii</t>
-  </si>
-  <si>
     <t>NV</t>
   </si>
   <si>
     <t>CV</t>
   </si>
   <si>
-    <t>N_bi</t>
-  </si>
-  <si>
-    <t>N_min</t>
-  </si>
-  <si>
-    <t>li_N</t>
-  </si>
-  <si>
-    <t>N_'alaa</t>
-  </si>
-  <si>
-    <t>N_li</t>
-  </si>
-  <si>
-    <t>N_ma'a</t>
-  </si>
-  <si>
-    <t>inda_N</t>
-  </si>
-  <si>
-    <t>N_'an</t>
-  </si>
-  <si>
-    <t>N_N</t>
-  </si>
-  <si>
-    <t>ACC_N</t>
-  </si>
-  <si>
-    <t>N_'ilaa</t>
-  </si>
-  <si>
-    <t>min_N</t>
-  </si>
-  <si>
-    <t>N_fii</t>
+    <t>*</t>
+  </si>
+  <si>
+    <t>ACC_NOM</t>
+  </si>
+  <si>
+    <t>indaGEN</t>
+  </si>
+  <si>
+    <t>indaGEN_NOM</t>
+  </si>
+  <si>
+    <t>liGEN</t>
+  </si>
+  <si>
+    <t>liGEN_NOM</t>
+  </si>
+  <si>
+    <t>minGEN</t>
+  </si>
+  <si>
+    <t>minGEN_NOM</t>
+  </si>
+  <si>
+    <t>alaaGEN</t>
+  </si>
+  <si>
+    <t>NOM_alaaGEN</t>
+  </si>
+  <si>
+    <t>anGEN</t>
+  </si>
+  <si>
+    <t>NOM_anGEN</t>
+  </si>
+  <si>
+    <t>biGEN</t>
+  </si>
+  <si>
+    <t>NOM_biGEN</t>
+  </si>
+  <si>
+    <t>fiiGEN</t>
+  </si>
+  <si>
+    <t>NOM_fiiGEN</t>
+  </si>
+  <si>
+    <t>ilaaGEN</t>
+  </si>
+  <si>
+    <t>NOM_ilaaGEN</t>
+  </si>
+  <si>
+    <t>NOM_liGEN</t>
+  </si>
+  <si>
+    <t>maaGEN</t>
+  </si>
+  <si>
+    <t>NOM_maaGEN</t>
+  </si>
+  <si>
+    <t>NOM_minGEN</t>
+  </si>
+  <si>
+    <t>NOM_NOM</t>
   </si>
 </sst>
 </file>
@@ -1739,20 +1742,21 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color indexed="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1800,7 +1804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
@@ -1824,30 +1828,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2131,31 +2129,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" customWidth="1"/>
-    <col min="3" max="3" width="4.54296875" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" customWidth="1"/>
-    <col min="7" max="7" width="26.1796875" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="17.1796875" customWidth="1"/>
-    <col min="13" max="13" width="50.81640625" customWidth="1"/>
-    <col min="14" max="14" width="37.6328125" customWidth="1"/>
-    <col min="15" max="15" width="46" customWidth="1"/>
-    <col min="16" max="16" width="29.26953125" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" customWidth="1"/>
-    <col min="18" max="18" width="28.6328125" customWidth="1"/>
-    <col min="19" max="19" width="113.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="4.54296875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="13" style="9" customWidth="1"/>
+    <col min="11" max="11" width="6" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.1796875" style="9" customWidth="1"/>
+    <col min="13" max="13" width="50.81640625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="37.6328125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="46" style="9" customWidth="1"/>
+    <col min="16" max="16" width="29.26953125" style="9" customWidth="1"/>
+    <col min="17" max="17" width="18.81640625" style="9" customWidth="1"/>
+    <col min="18" max="18" width="28.6328125" style="9" customWidth="1"/>
+    <col min="19" max="19" width="113.81640625" style="9" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="117" customHeight="1" x14ac:dyDescent="0.35">
@@ -2217,11 +2216,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C2" s="4">
@@ -2240,25 +2239,31 @@
         <v>22</v>
       </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15" t="s">
-        <v>548</v>
-      </c>
+      <c r="I2" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="5"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S2" s="11" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C3" s="4">
@@ -2277,33 +2282,33 @@
         <v>26</v>
       </c>
       <c r="H3" s="7"/>
-      <c r="I3" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="K3" s="13" t="s">
+      <c r="I3" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>548</v>
-      </c>
+      <c r="L3" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="M3" s="11"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S3" s="11" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C4" s="4">
@@ -2322,31 +2327,31 @@
         <v>30</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>538</v>
-      </c>
-      <c r="K4" s="14" t="s">
+      <c r="I4" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="M4" s="15"/>
+      <c r="L4" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="M4" s="11"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="5"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S4" s="11"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C5" s="4">
@@ -2365,29 +2370,31 @@
         <v>34</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="M5" s="15"/>
+      <c r="I5" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="M5" s="11"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="5"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S5" s="11"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C6" s="4">
@@ -2406,33 +2413,33 @@
         <v>38</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="13" t="s">
-        <v>540</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="K6" s="13" t="s">
+      <c r="I6" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="15" t="s">
-        <v>552</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>548</v>
-      </c>
+      <c r="L6" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="M6" s="11"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S6" s="11" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C7" s="4">
@@ -2451,29 +2458,31 @@
         <v>42</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="M7" s="15"/>
+      <c r="I7" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="M7" s="11"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="9"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S7" s="11"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C8" s="4">
@@ -2492,29 +2501,31 @@
         <v>46</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="M8" s="15"/>
+      <c r="I8" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="M8" s="11"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="5"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S8" s="11"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C9" s="4">
@@ -2533,29 +2544,31 @@
         <v>50</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="M9" s="15"/>
+      <c r="I9" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="M9" s="11"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="5"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>2</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C10" s="4">
@@ -2574,29 +2587,31 @@
         <v>54</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="M10" s="15"/>
+      <c r="I10" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="M10" s="11"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="5"/>
-    </row>
-    <row r="11" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S10" s="11"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C11" s="4">
@@ -2615,31 +2630,31 @@
         <v>58</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="K11" s="13" t="s">
+      <c r="I11" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="15" t="s">
-        <v>553</v>
-      </c>
-      <c r="M11" s="15"/>
+      <c r="L11" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="M11" s="11"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>2</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C12" s="4">
@@ -2658,31 +2673,31 @@
         <v>62</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="K12" s="13" t="s">
+      <c r="I12" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="M12" s="15"/>
+      <c r="L12" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="M12" s="11"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="5"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S12" s="11"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>2</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C13" s="4">
@@ -2701,29 +2716,31 @@
         <v>66</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="M13" s="15"/>
+      <c r="I13" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="M13" s="11"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="5"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S13" s="11"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>2</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C14" s="4">
@@ -2742,23 +2759,29 @@
         <v>70</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
+      <c r="I14" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="9"/>
-    </row>
-    <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S14" s="11"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C15" s="4">
@@ -2777,31 +2800,31 @@
         <v>74</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>538</v>
-      </c>
-      <c r="K15" s="14" t="s">
+      <c r="I15" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="K15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="M15" s="15"/>
+      <c r="L15" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="M15" s="11"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="9"/>
-    </row>
-    <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S15" s="11"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>2</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C16" s="4">
@@ -2820,29 +2843,31 @@
         <v>78</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="M16" s="15"/>
+      <c r="I16" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="M16" s="11"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S16" s="11"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>2</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C17" s="4">
@@ -2861,29 +2886,31 @@
         <v>82</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="M17" s="15"/>
+      <c r="I17" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="M17" s="11"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="5"/>
-    </row>
-    <row r="18" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S17" s="11"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C18" s="4">
@@ -2902,31 +2929,31 @@
         <v>86</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="K18" s="12" t="s">
+      <c r="I18" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="K18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="M18" s="15"/>
+      <c r="L18" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="M18" s="11"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="5"/>
-    </row>
-    <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S18" s="11"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>2</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C19" s="4">
@@ -2945,29 +2972,31 @@
         <v>90</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="M19" s="15"/>
+      <c r="I19" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="M19" s="11"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="5"/>
-    </row>
-    <row r="20" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S19" s="11"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>2</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C20" s="4">
@@ -2986,31 +3015,31 @@
         <v>94</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="K20" s="13" t="s">
+      <c r="I20" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="K20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="M20" s="15"/>
+      <c r="L20" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="M20" s="11"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="9"/>
-    </row>
-    <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S20" s="11"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>2</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C21" s="4">
@@ -3029,29 +3058,31 @@
         <v>98</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="M21" s="15"/>
+      <c r="I21" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="M21" s="11"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="5"/>
-    </row>
-    <row r="22" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S21" s="11"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>2</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C22" s="4">
@@ -3070,29 +3101,31 @@
         <v>102</v>
       </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="M22" s="15"/>
+      <c r="I22" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="M22" s="11"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="9"/>
-    </row>
-    <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S22" s="11"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>2</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C23" s="4">
@@ -3111,29 +3144,31 @@
         <v>106</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="M23" s="15"/>
+      <c r="I23" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="M23" s="11"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="5"/>
-    </row>
-    <row r="24" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S23" s="11"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>2</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C24" s="4">
@@ -3152,31 +3187,31 @@
         <v>110</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="K24" s="12" t="s">
+      <c r="I24" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="K24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L24" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="M24" s="15"/>
+      <c r="L24" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="M24" s="11"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="9"/>
-    </row>
-    <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S24" s="11"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>2</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C25" s="4">
@@ -3195,29 +3230,31 @@
         <v>114</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="M25" s="15"/>
+      <c r="I25" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="M25" s="11"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="5"/>
-    </row>
-    <row r="26" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S25" s="11"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>2</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C26" s="4">
@@ -3236,31 +3273,31 @@
         <v>118</v>
       </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="K26" s="13" t="s">
+      <c r="I26" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="K26" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="M26" s="15"/>
+      <c r="L26" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="M26" s="11"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="5"/>
-    </row>
-    <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S26" s="11"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>2</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C27" s="4">
@@ -3279,29 +3316,31 @@
         <v>122</v>
       </c>
       <c r="H27" s="7"/>
-      <c r="I27" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="M27" s="15"/>
+      <c r="I27" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="M27" s="11"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="5"/>
-    </row>
-    <row r="28" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S27" s="11"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>2</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C28" s="4">
@@ -3320,29 +3359,31 @@
         <v>126</v>
       </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="M28" s="15"/>
+      <c r="I28" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="M28" s="11"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="5"/>
-    </row>
-    <row r="29" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S28" s="11"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>2</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C29" s="4">
@@ -3361,29 +3402,31 @@
         <v>130</v>
       </c>
       <c r="H29" s="7"/>
-      <c r="I29" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="M29" s="15"/>
+      <c r="I29" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="M29" s="11"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="5"/>
-    </row>
-    <row r="30" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S29" s="11"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>2</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C30" s="4">
@@ -3402,29 +3445,31 @@
         <v>134</v>
       </c>
       <c r="H30" s="7"/>
-      <c r="I30" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L30" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="M30" s="15"/>
+      <c r="I30" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="M30" s="11"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="9"/>
-    </row>
-    <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S30" s="11"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>2</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C31" s="4">
@@ -3443,31 +3488,31 @@
         <v>138</v>
       </c>
       <c r="H31" s="7"/>
-      <c r="I31" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="K31" s="13" t="s">
+      <c r="I31" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="K31" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L31" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="M31" s="15"/>
+      <c r="L31" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="M31" s="11"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="5"/>
-    </row>
-    <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S31" s="11"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>2</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C32" s="4">
@@ -3486,29 +3531,31 @@
         <v>142</v>
       </c>
       <c r="H32" s="7"/>
-      <c r="I32" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L32" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="M32" s="15"/>
+      <c r="I32" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="M32" s="11"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
-      <c r="S32" s="5"/>
-    </row>
-    <row r="33" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S32" s="11"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>2</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C33" s="4">
@@ -3527,31 +3574,31 @@
         <v>146</v>
       </c>
       <c r="H33" s="7"/>
-      <c r="I33" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="K33" s="13" t="s">
+      <c r="I33" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="K33" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="15" t="s">
-        <v>553</v>
-      </c>
-      <c r="M33" s="15"/>
+      <c r="L33" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="M33" s="11"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="5"/>
-    </row>
-    <row r="34" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S33" s="11"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>2</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C34" s="4">
@@ -3570,29 +3617,31 @@
         <v>150</v>
       </c>
       <c r="H34" s="7"/>
-      <c r="I34" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L34" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="M34" s="15"/>
+      <c r="I34" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="M34" s="11"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
-      <c r="S34" s="5"/>
-    </row>
-    <row r="35" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S34" s="11"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>2</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C35" s="4">
@@ -3611,31 +3660,31 @@
         <v>154</v>
       </c>
       <c r="H35" s="7"/>
-      <c r="I35" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="K35" s="13" t="s">
+      <c r="I35" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="K35" s="12" t="s">
         <v>9</v>
       </c>
       <c r="L35" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="M35" s="11"/>
+        <v>550</v>
+      </c>
+      <c r="M35" s="8"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="5"/>
-    </row>
-    <row r="36" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S35" s="8"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>2</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C36" s="4">
@@ -3654,29 +3703,31 @@
         <v>158</v>
       </c>
       <c r="H36" s="7"/>
-      <c r="I36" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L36" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="M36" s="15"/>
+      <c r="I36" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="M36" s="11"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="5"/>
-    </row>
-    <row r="37" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S36" s="11"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>2</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C37" s="4">
@@ -3695,29 +3746,31 @@
         <v>162</v>
       </c>
       <c r="H37" s="7"/>
-      <c r="I37" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="M37" s="15"/>
+      <c r="I37" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="M37" s="11"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="5"/>
-    </row>
-    <row r="38" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S37" s="11"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>2</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C38" s="4">
@@ -3736,31 +3789,31 @@
         <v>166</v>
       </c>
       <c r="H38" s="7"/>
-      <c r="I38" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="K38" s="13" t="s">
+      <c r="I38" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="K38" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L38" s="15" t="s">
-        <v>553</v>
-      </c>
-      <c r="M38" s="15"/>
+      <c r="L38" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="M38" s="11"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="5"/>
-    </row>
-    <row r="39" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S38" s="11"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>2</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C39" s="4">
@@ -3779,33 +3832,33 @@
         <v>169</v>
       </c>
       <c r="H39" s="7"/>
-      <c r="I39" s="13" t="s">
+      <c r="I39" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="J39" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="K39" s="12" t="s">
+      <c r="J39" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="K39" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L39" s="15" t="s">
-        <v>556</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>548</v>
-      </c>
+      <c r="L39" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="M39" s="11"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="5"/>
-    </row>
-    <row r="40" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S39" s="11" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>2</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C40" s="4">
@@ -3824,31 +3877,31 @@
         <v>173</v>
       </c>
       <c r="H40" s="7"/>
-      <c r="I40" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="K40" s="14" t="s">
+      <c r="I40" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="K40" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L40" s="15" t="s">
-        <v>557</v>
-      </c>
-      <c r="M40" s="15"/>
+      <c r="L40" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="M40" s="11"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
-      <c r="S40" s="5"/>
-    </row>
-    <row r="41" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S40" s="11"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>2</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C41" s="4">
@@ -3867,29 +3920,31 @@
         <v>177</v>
       </c>
       <c r="H41" s="7"/>
-      <c r="I41" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L41" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="M41" s="15"/>
+      <c r="I41" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="M41" s="11"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
-      <c r="S41" s="5"/>
-    </row>
-    <row r="42" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S41" s="11"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>2</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C42" s="4">
@@ -3908,29 +3963,31 @@
         <v>181</v>
       </c>
       <c r="H42" s="7"/>
-      <c r="I42" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L42" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="M42" s="15"/>
+      <c r="I42" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="M42" s="11"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
-      <c r="S42" s="5"/>
-    </row>
-    <row r="43" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S42" s="11"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>2</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C43" s="4">
@@ -3949,29 +4006,31 @@
         <v>185</v>
       </c>
       <c r="H43" s="7"/>
-      <c r="I43" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L43" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M43" s="15"/>
+      <c r="I43" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L43" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M43" s="11"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="5"/>
-    </row>
-    <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S43" s="11"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>2</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C44" s="4">
@@ -3990,29 +4049,31 @@
         <v>189</v>
       </c>
       <c r="H44" s="7"/>
-      <c r="I44" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L44" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M44" s="15"/>
+      <c r="I44" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L44" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M44" s="11"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="5"/>
-    </row>
-    <row r="45" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S44" s="11"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>2</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C45" s="4">
@@ -4031,29 +4092,31 @@
         <v>193</v>
       </c>
       <c r="H45" s="7"/>
-      <c r="I45" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L45" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M45" s="15"/>
+      <c r="I45" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L45" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M45" s="11"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
-      <c r="S45" s="5"/>
-    </row>
-    <row r="46" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S45" s="11"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>2</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C46" s="4">
@@ -4072,29 +4135,31 @@
         <v>197</v>
       </c>
       <c r="H46" s="7"/>
-      <c r="I46" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L46" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M46" s="15"/>
+      <c r="I46" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M46" s="11"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
-      <c r="S46" s="5"/>
-    </row>
-    <row r="47" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S46" s="11"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>2</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C47" s="4">
@@ -4113,29 +4178,31 @@
         <v>201</v>
       </c>
       <c r="H47" s="7"/>
-      <c r="I47" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L47" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M47" s="15"/>
+      <c r="I47" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L47" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M47" s="11"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="5"/>
-    </row>
-    <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S47" s="11"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>2</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C48" s="4">
@@ -4154,31 +4221,31 @@
         <v>205</v>
       </c>
       <c r="H48" s="7"/>
-      <c r="I48" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="J48" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="K48" s="13" t="s">
+      <c r="I48" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="K48" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L48" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="M48" s="15"/>
+      <c r="L48" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="M48" s="11"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
-      <c r="S48" s="5"/>
-    </row>
-    <row r="49" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S48" s="11"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>2</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C49" s="4">
@@ -4197,31 +4264,31 @@
         <v>209</v>
       </c>
       <c r="H49" s="7"/>
-      <c r="I49" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="J49" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="K49" s="13" t="s">
+      <c r="I49" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="K49" s="12" t="s">
         <v>9</v>
       </c>
       <c r="L49" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="M49" s="11"/>
+        <v>554</v>
+      </c>
+      <c r="M49" s="8"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-      <c r="S49" s="5"/>
-    </row>
-    <row r="50" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S49" s="8"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>2</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C50" s="4">
@@ -4240,29 +4307,31 @@
         <v>213</v>
       </c>
       <c r="H50" s="7"/>
-      <c r="I50" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L50" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M50" s="15"/>
+      <c r="I50" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M50" s="11"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
-      <c r="S50" s="5"/>
-    </row>
-    <row r="51" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S50" s="11"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>2</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C51" s="4">
@@ -4281,29 +4350,31 @@
         <v>217</v>
       </c>
       <c r="H51" s="7"/>
-      <c r="I51" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L51" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M51" s="15"/>
+      <c r="I51" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L51" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M51" s="11"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
-      <c r="S51" s="5"/>
-    </row>
-    <row r="52" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S51" s="11"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>2</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C52" s="4">
@@ -4322,31 +4393,31 @@
         <v>221</v>
       </c>
       <c r="H52" s="7"/>
-      <c r="I52" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="J52" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="K52" s="12" t="s">
+      <c r="I52" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="K52" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L52" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="M52" s="15"/>
+      <c r="L52" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="M52" s="11"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="5"/>
-    </row>
-    <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S52" s="11"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>2</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C53" s="4">
@@ -4365,29 +4436,31 @@
         <v>225</v>
       </c>
       <c r="H53" s="7"/>
-      <c r="I53" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L53" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M53" s="15"/>
+      <c r="I53" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L53" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M53" s="11"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
-      <c r="S53" s="5"/>
-    </row>
-    <row r="54" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S53" s="11"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>2</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C54" s="4">
@@ -4406,29 +4479,31 @@
         <v>229</v>
       </c>
       <c r="H54" s="7"/>
-      <c r="I54" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L54" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M54" s="15"/>
+      <c r="I54" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L54" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M54" s="11"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
-      <c r="S54" s="5"/>
-    </row>
-    <row r="55" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S54" s="11"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>2</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C55" s="4">
@@ -4447,31 +4522,31 @@
         <v>233</v>
       </c>
       <c r="H55" s="7"/>
-      <c r="I55" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="J55" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="K55" s="13" t="s">
+      <c r="I55" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="K55" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L55" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="M55" s="15"/>
+      <c r="L55" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="M55" s="11"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="5"/>
-    </row>
-    <row r="56" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S55" s="11"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>2</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C56" s="4">
@@ -4490,29 +4565,31 @@
         <v>237</v>
       </c>
       <c r="H56" s="7"/>
-      <c r="I56" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L56" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M56" s="15"/>
+      <c r="I56" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J56" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K56" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L56" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M56" s="11"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
-      <c r="S56" s="5"/>
-    </row>
-    <row r="57" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S56" s="11"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>2</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C57" s="4">
@@ -4531,31 +4608,31 @@
         <v>241</v>
       </c>
       <c r="H57" s="7"/>
-      <c r="I57" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="J57" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="K57" s="12" t="s">
+      <c r="I57" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="K57" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L57" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="M57" s="15"/>
+      <c r="L57" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="M57" s="11"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="5"/>
-    </row>
-    <row r="58" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S57" s="11"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>2</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C58" s="4">
@@ -4574,29 +4651,31 @@
         <v>245</v>
       </c>
       <c r="H58" s="7"/>
-      <c r="I58" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L58" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M58" s="15"/>
+      <c r="I58" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L58" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M58" s="11"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
-      <c r="S58" s="5"/>
-    </row>
-    <row r="59" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S58" s="11"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>2</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C59" s="4">
@@ -4615,29 +4694,31 @@
         <v>249</v>
       </c>
       <c r="H59" s="7"/>
-      <c r="I59" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L59" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M59" s="15"/>
+      <c r="I59" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K59" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L59" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M59" s="11"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="5"/>
-    </row>
-    <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S59" s="11"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>2</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C60" s="4">
@@ -4656,31 +4737,31 @@
         <v>253</v>
       </c>
       <c r="H60" s="7"/>
-      <c r="I60" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="J60" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="K60" s="12" t="s">
+      <c r="I60" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="K60" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L60" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="M60" s="15"/>
+      <c r="L60" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="M60" s="11"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="5"/>
-    </row>
-    <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S60" s="11"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>2</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C61" s="4">
@@ -4699,29 +4780,31 @@
         <v>257</v>
       </c>
       <c r="H61" s="7"/>
-      <c r="I61" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L61" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M61" s="15"/>
+      <c r="I61" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J61" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L61" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M61" s="11"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
-      <c r="S61" s="5"/>
-    </row>
-    <row r="62" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S61" s="11"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>2</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C62" s="6">
@@ -4740,31 +4823,31 @@
         <v>261</v>
       </c>
       <c r="H62" s="7"/>
-      <c r="I62" s="13" t="s">
+      <c r="I62" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="J62" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="K62" s="13" t="s">
+      <c r="J62" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="K62" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="15" t="s">
-        <v>556</v>
-      </c>
-      <c r="M62" s="16"/>
+      <c r="L62" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="M62" s="15"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="5"/>
-    </row>
-    <row r="63" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S62" s="15"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>2</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C63" s="4">
@@ -4783,29 +4866,31 @@
         <v>265</v>
       </c>
       <c r="H63" s="7"/>
-      <c r="I63" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L63" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M63" s="15"/>
+      <c r="I63" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L63" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M63" s="11"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
-      <c r="S63" s="5"/>
-    </row>
-    <row r="64" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S63" s="11"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>2</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C64" s="4">
@@ -4824,29 +4909,31 @@
         <v>269</v>
       </c>
       <c r="H64" s="7"/>
-      <c r="I64" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L64" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M64" s="15"/>
+      <c r="I64" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J64" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L64" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M64" s="11"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
-      <c r="S64" s="5"/>
-    </row>
-    <row r="65" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S64" s="11"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>2</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C65" s="4">
@@ -4865,31 +4952,31 @@
         <v>273</v>
       </c>
       <c r="H65" s="7"/>
-      <c r="I65" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="J65" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="K65" s="14" t="s">
+      <c r="I65" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J65" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="K65" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L65" s="15" t="s">
-        <v>557</v>
-      </c>
-      <c r="M65" s="15"/>
+      <c r="L65" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="M65" s="11"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="5"/>
-    </row>
-    <row r="66" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S65" s="11"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>2</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C66" s="4">
@@ -4908,31 +4995,31 @@
         <v>277</v>
       </c>
       <c r="H66" s="7"/>
-      <c r="I66" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="J66" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="K66" s="14" t="s">
+      <c r="I66" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J66" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="K66" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L66" s="15" t="s">
-        <v>557</v>
-      </c>
-      <c r="M66" s="15"/>
+      <c r="L66" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="M66" s="11"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="5"/>
-    </row>
-    <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S66" s="11"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>2</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C67" s="4">
@@ -4951,29 +5038,31 @@
         <v>281</v>
       </c>
       <c r="H67" s="7"/>
-      <c r="I67" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L67" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M67" s="15"/>
+      <c r="I67" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J67" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L67" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M67" s="11"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
-      <c r="S67" s="5"/>
-    </row>
-    <row r="68" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S67" s="11"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>2</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C68" s="4">
@@ -4992,31 +5081,31 @@
         <v>285</v>
       </c>
       <c r="H68" s="7"/>
-      <c r="I68" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="J68" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="K68" s="12" t="s">
+      <c r="I68" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="J68" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="K68" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L68" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="M68" s="11"/>
+      <c r="L68" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="M68" s="8"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="5"/>
-    </row>
-    <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S68" s="8"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>2</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C69" s="4">
@@ -5035,29 +5124,31 @@
         <v>289</v>
       </c>
       <c r="H69" s="7"/>
-      <c r="I69" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L69" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M69" s="15"/>
+      <c r="I69" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J69" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K69" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L69" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M69" s="11"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
-      <c r="S69" s="5"/>
-    </row>
-    <row r="70" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S69" s="11"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>2</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C70" s="4">
@@ -5076,29 +5167,31 @@
         <v>293</v>
       </c>
       <c r="H70" s="7"/>
-      <c r="I70" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L70" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M70" s="15"/>
+      <c r="I70" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J70" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L70" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M70" s="11"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
-      <c r="S70" s="5"/>
-    </row>
-    <row r="71" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S70" s="11"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>2</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C71" s="4">
@@ -5117,29 +5210,31 @@
         <v>297</v>
       </c>
       <c r="H71" s="7"/>
-      <c r="I71" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L71" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M71" s="15"/>
+      <c r="I71" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J71" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K71" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L71" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M71" s="11"/>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
-      <c r="S71" s="5"/>
-    </row>
-    <row r="72" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S71" s="11"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>2</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C72" s="4">
@@ -5158,29 +5253,31 @@
         <v>301</v>
       </c>
       <c r="H72" s="7"/>
-      <c r="I72" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L72" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M72" s="15"/>
+      <c r="I72" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L72" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M72" s="11"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
-      <c r="S72" s="5"/>
-    </row>
-    <row r="73" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S72" s="11"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>2</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C73" s="4">
@@ -5199,29 +5296,31 @@
         <v>305</v>
       </c>
       <c r="H73" s="7"/>
-      <c r="I73" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L73" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M73" s="15"/>
+      <c r="I73" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J73" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K73" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L73" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M73" s="11"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
-      <c r="S73" s="5"/>
-    </row>
-    <row r="74" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S73" s="11"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>2</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C74" s="4">
@@ -5240,29 +5339,31 @@
         <v>309</v>
       </c>
       <c r="H74" s="7"/>
-      <c r="I74" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L74" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M74" s="15"/>
+      <c r="I74" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J74" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K74" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L74" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M74" s="11"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
-      <c r="S74" s="5"/>
-    </row>
-    <row r="75" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S74" s="11"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>2</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C75" s="4">
@@ -5281,29 +5382,31 @@
         <v>313</v>
       </c>
       <c r="H75" s="7"/>
-      <c r="I75" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L75" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M75" s="15"/>
+      <c r="I75" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J75" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K75" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L75" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M75" s="11"/>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
-      <c r="S75" s="5"/>
-    </row>
-    <row r="76" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S75" s="11"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>2</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C76" s="4">
@@ -5322,29 +5425,31 @@
         <v>317</v>
       </c>
       <c r="H76" s="7"/>
-      <c r="I76" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L76" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M76" s="15"/>
+      <c r="I76" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J76" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L76" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M76" s="11"/>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
-      <c r="S76" s="5"/>
-    </row>
-    <row r="77" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S76" s="11"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>2</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C77" s="4">
@@ -5363,29 +5468,31 @@
         <v>321</v>
       </c>
       <c r="H77" s="7"/>
-      <c r="I77" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L77" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M77" s="15"/>
+      <c r="I77" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J77" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K77" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L77" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M77" s="11"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
-      <c r="S77" s="5"/>
-    </row>
-    <row r="78" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S77" s="11"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>2</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C78" s="4">
@@ -5404,29 +5511,31 @@
         <v>325</v>
       </c>
       <c r="H78" s="7"/>
-      <c r="I78" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L78" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M78" s="15"/>
+      <c r="I78" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L78" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M78" s="11"/>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
-      <c r="S78" s="5"/>
-    </row>
-    <row r="79" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S78" s="11"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>2</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C79" s="4">
@@ -5445,29 +5554,31 @@
         <v>329</v>
       </c>
       <c r="H79" s="7"/>
-      <c r="I79" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L79" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M79" s="15"/>
+      <c r="I79" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J79" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K79" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L79" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M79" s="11"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
-      <c r="S79" s="5"/>
-    </row>
-    <row r="80" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S79" s="11"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>2</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C80" s="4">
@@ -5486,31 +5597,31 @@
         <v>333</v>
       </c>
       <c r="H80" s="7"/>
-      <c r="I80" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="J80" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="K80" s="13" t="s">
+      <c r="I80" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J80" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="K80" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L80" s="17" t="s">
-        <v>553</v>
-      </c>
-      <c r="M80" s="15"/>
+      <c r="L80" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="M80" s="11"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
-      <c r="S80" s="5"/>
-    </row>
-    <row r="81" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S80" s="11"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>2</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C81" s="4">
@@ -5529,31 +5640,31 @@
         <v>337</v>
       </c>
       <c r="H81" s="7"/>
-      <c r="I81" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="J81" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="K81" s="13" t="s">
+      <c r="I81" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J81" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="K81" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L81" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="M81" s="15"/>
+      <c r="L81" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="M81" s="11"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
-      <c r="S81" s="5"/>
-    </row>
-    <row r="82" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S81" s="11"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>2</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C82" s="4">
@@ -5572,31 +5683,31 @@
         <v>341</v>
       </c>
       <c r="H82" s="7"/>
-      <c r="I82" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="J82" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="K82" s="13" t="s">
+      <c r="I82" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J82" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="K82" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L82" s="17" t="s">
-        <v>550</v>
-      </c>
-      <c r="M82" s="15"/>
+      <c r="L82" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="M82" s="11"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
-      <c r="S82" s="5"/>
-    </row>
-    <row r="83" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S82" s="11"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>2</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C83" s="4">
@@ -5615,23 +5726,29 @@
         <v>345</v>
       </c>
       <c r="H83" s="7"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="15"/>
+      <c r="I83" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="J83" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="K83" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
-      <c r="S83" s="5"/>
-    </row>
-    <row r="84" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S83" s="11"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>2</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C84" s="4">
@@ -5650,31 +5767,31 @@
         <v>349</v>
       </c>
       <c r="H84" s="7"/>
-      <c r="I84" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="J84" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="K84" s="13" t="s">
+      <c r="I84" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J84" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="K84" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L84" s="17" t="s">
-        <v>550</v>
-      </c>
-      <c r="M84" s="11"/>
+      <c r="L84" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="M84" s="8"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
-      <c r="S84" s="5"/>
-    </row>
-    <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S84" s="8"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>2</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C85" s="4">
@@ -5693,31 +5810,31 @@
         <v>353</v>
       </c>
       <c r="H85" s="7"/>
-      <c r="I85" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="J85" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="K85" s="12" t="s">
+      <c r="I85" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="J85" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="K85" s="10" t="s">
         <v>9</v>
       </c>
       <c r="L85" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="M85" s="15"/>
+        <v>561</v>
+      </c>
+      <c r="M85" s="11"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
-      <c r="S85" s="5"/>
-    </row>
-    <row r="86" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S85" s="11"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>2</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C86" s="4">
@@ -5736,29 +5853,31 @@
         <v>357</v>
       </c>
       <c r="H86" s="7"/>
-      <c r="I86" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J86" s="14"/>
-      <c r="K86" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L86" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M86" s="15"/>
+      <c r="I86" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J86" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K86" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L86" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M86" s="11"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
-      <c r="S86" s="5"/>
-    </row>
-    <row r="87" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S86" s="11"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>2</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C87" s="4">
@@ -5777,29 +5896,31 @@
         <v>361</v>
       </c>
       <c r="H87" s="7"/>
-      <c r="I87" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L87" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M87" s="15"/>
+      <c r="I87" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J87" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K87" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L87" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M87" s="11"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
-      <c r="S87" s="5"/>
-    </row>
-    <row r="88" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S87" s="11"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>2</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C88" s="4">
@@ -5818,29 +5939,31 @@
         <v>365</v>
       </c>
       <c r="H88" s="7"/>
-      <c r="I88" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J88" s="14"/>
-      <c r="K88" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L88" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M88" s="15"/>
+      <c r="I88" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J88" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K88" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L88" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M88" s="11"/>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
-      <c r="S88" s="5"/>
-    </row>
-    <row r="89" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S88" s="11"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>2</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C89" s="4">
@@ -5859,31 +5982,31 @@
         <v>369</v>
       </c>
       <c r="H89" s="7"/>
-      <c r="I89" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="J89" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="K89" s="12" t="s">
+      <c r="I89" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="J89" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="K89" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L89" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="M89" s="11"/>
+      <c r="L89" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="M89" s="8"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
-      <c r="S89" s="5"/>
-    </row>
-    <row r="90" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S89" s="8"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>2</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C90" s="4">
@@ -5902,29 +6025,31 @@
         <v>373</v>
       </c>
       <c r="H90" s="7"/>
-      <c r="I90" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J90" s="14"/>
-      <c r="K90" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L90" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M90" s="11"/>
+      <c r="I90" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J90" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K90" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L90" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M90" s="8"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
-      <c r="S90" s="5"/>
-    </row>
-    <row r="91" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S90" s="8"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>2</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C91" s="4">
@@ -5943,31 +6068,31 @@
         <v>377</v>
       </c>
       <c r="H91" s="7"/>
-      <c r="I91" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="J91" s="14" t="s">
-        <v>538</v>
-      </c>
-      <c r="K91" s="14" t="s">
+      <c r="I91" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J91" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="K91" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L91" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="M91" s="15"/>
+      <c r="L91" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="M91" s="11"/>
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
-      <c r="S91" s="5"/>
-    </row>
-    <row r="92" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S91" s="11"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>2</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C92" s="4">
@@ -5986,29 +6111,31 @@
         <v>381</v>
       </c>
       <c r="H92" s="7"/>
-      <c r="I92" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J92" s="14"/>
-      <c r="K92" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L92" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M92" s="15"/>
+      <c r="I92" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J92" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K92" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L92" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M92" s="11"/>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
-      <c r="S92" s="5"/>
-    </row>
-    <row r="93" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S92" s="11"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>2</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C93" s="4">
@@ -6027,23 +6154,29 @@
         <v>385</v>
       </c>
       <c r="H93" s="7"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="15"/>
-      <c r="M93" s="11"/>
+      <c r="I93" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="J93" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="K93" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="L93" s="11"/>
+      <c r="M93" s="8"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
-      <c r="S93" s="5"/>
-    </row>
-    <row r="94" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S93" s="8"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>2</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C94" s="4">
@@ -6062,29 +6195,31 @@
         <v>389</v>
       </c>
       <c r="H94" s="7"/>
-      <c r="I94" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J94" s="14"/>
-      <c r="K94" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L94" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M94" s="15"/>
+      <c r="I94" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J94" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K94" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L94" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M94" s="11"/>
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
-      <c r="S94" s="5"/>
-    </row>
-    <row r="95" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S94" s="11"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>2</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C95" s="4">
@@ -6103,31 +6238,31 @@
         <v>393</v>
       </c>
       <c r="H95" s="7"/>
-      <c r="I95" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="J95" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="K95" s="12" t="s">
+      <c r="I95" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="J95" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="K95" s="10" t="s">
         <v>9</v>
       </c>
       <c r="L95" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="M95" s="15"/>
+        <v>561</v>
+      </c>
+      <c r="M95" s="11"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
-      <c r="S95" s="5"/>
-    </row>
-    <row r="96" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S95" s="11"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>2</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C96" s="4">
@@ -6146,31 +6281,31 @@
         <v>397</v>
       </c>
       <c r="H96" s="7"/>
-      <c r="I96" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="J96" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="K96" s="12" t="s">
+      <c r="I96" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="J96" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="K96" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L96" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="M96" s="15"/>
+      <c r="L96" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="M96" s="11"/>
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
-      <c r="S96" s="5"/>
-    </row>
-    <row r="97" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S96" s="11"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>2</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C97" s="4">
@@ -6189,29 +6324,31 @@
         <v>401</v>
       </c>
       <c r="H97" s="7"/>
-      <c r="I97" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J97" s="14"/>
-      <c r="K97" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L97" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M97" s="15"/>
+      <c r="I97" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J97" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K97" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L97" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M97" s="11"/>
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
-      <c r="S97" s="5"/>
-    </row>
-    <row r="98" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S97" s="11"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>2</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C98" s="4">
@@ -6230,23 +6367,29 @@
         <v>405</v>
       </c>
       <c r="H98" s="7"/>
-      <c r="I98" s="13"/>
-      <c r="J98" s="13"/>
-      <c r="K98" s="13"/>
-      <c r="L98" s="15"/>
-      <c r="M98" s="15"/>
+      <c r="I98" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="J98" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="K98" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="5"/>
-    </row>
-    <row r="99" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S98" s="11"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>2</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C99" s="4">
@@ -6265,29 +6408,31 @@
         <v>409</v>
       </c>
       <c r="H99" s="7"/>
-      <c r="I99" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J99" s="14"/>
-      <c r="K99" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L99" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M99" s="15"/>
+      <c r="I99" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J99" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K99" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L99" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M99" s="11"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="5"/>
-    </row>
-    <row r="100" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S99" s="11"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>2</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C100" s="4">
@@ -6306,31 +6451,31 @@
         <v>413</v>
       </c>
       <c r="H100" s="7"/>
-      <c r="I100" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="J100" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="K100" s="12" t="s">
+      <c r="I100" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="J100" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="K100" s="10" t="s">
         <v>9</v>
       </c>
       <c r="L100" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="M100" s="15"/>
+        <v>561</v>
+      </c>
+      <c r="M100" s="11"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="5"/>
-    </row>
-    <row r="101" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S100" s="11"/>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>2</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C101" s="4">
@@ -6349,25 +6494,31 @@
         <v>417</v>
       </c>
       <c r="H101" s="7"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="12"/>
-      <c r="L101" s="15"/>
-      <c r="M101" s="15" t="s">
-        <v>548</v>
-      </c>
+      <c r="I101" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="J101" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="K101" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="5"/>
-    </row>
-    <row r="102" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S101" s="11" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>2</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C102" s="4">
@@ -6386,33 +6537,33 @@
         <v>421</v>
       </c>
       <c r="H102" s="7"/>
-      <c r="I102" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="J102" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="K102" s="13" t="s">
+      <c r="I102" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J102" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="K102" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L102" s="17" t="s">
-        <v>553</v>
-      </c>
-      <c r="M102" s="15" t="s">
-        <v>549</v>
-      </c>
+      <c r="L102" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="M102" s="11"/>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
-      <c r="S102" s="5"/>
-    </row>
-    <row r="103" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S102" s="11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>2</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C103" s="4">
@@ -6431,29 +6582,31 @@
         <v>425</v>
       </c>
       <c r="H103" s="7"/>
-      <c r="I103" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J103" s="14"/>
-      <c r="K103" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L103" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M103" s="15"/>
+      <c r="I103" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J103" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K103" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L103" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M103" s="11"/>
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
-      <c r="S103" s="5"/>
-    </row>
-    <row r="104" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S103" s="11"/>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>2</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C104" s="4">
@@ -6472,29 +6625,31 @@
         <v>428</v>
       </c>
       <c r="H104" s="7"/>
-      <c r="I104" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J104" s="14"/>
-      <c r="K104" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L104" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M104" s="15"/>
+      <c r="I104" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J104" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K104" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L104" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M104" s="11"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
-      <c r="S104" s="5"/>
-    </row>
-    <row r="105" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S104" s="11"/>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>2</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C105" s="4">
@@ -6513,31 +6668,31 @@
         <v>432</v>
       </c>
       <c r="H105" s="7"/>
-      <c r="I105" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="J105" s="14" t="s">
-        <v>547</v>
-      </c>
-      <c r="K105" s="14" t="s">
+      <c r="I105" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J105" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="K105" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L105" s="17" t="s">
-        <v>562</v>
-      </c>
-      <c r="M105" s="15"/>
+      <c r="L105" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="M105" s="11"/>
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
-      <c r="S105" s="5"/>
-    </row>
-    <row r="106" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S105" s="11"/>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>2</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C106" s="4">
@@ -6556,29 +6711,31 @@
         <v>436</v>
       </c>
       <c r="H106" s="7"/>
-      <c r="I106" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J106" s="14"/>
-      <c r="K106" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L106" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M106" s="15"/>
+      <c r="I106" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J106" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K106" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L106" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M106" s="11"/>
       <c r="N106" s="5"/>
       <c r="O106" s="5"/>
       <c r="P106" s="7"/>
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
-      <c r="S106" s="5"/>
-    </row>
-    <row r="107" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S106" s="11"/>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>2</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C107" s="4">
@@ -6597,29 +6754,31 @@
         <v>439</v>
       </c>
       <c r="H107" s="7"/>
-      <c r="I107" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J107" s="14"/>
-      <c r="K107" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L107" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M107" s="15"/>
+      <c r="I107" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J107" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K107" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L107" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M107" s="11"/>
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
-      <c r="S107" s="5"/>
-    </row>
-    <row r="108" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S107" s="11"/>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>2</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C108" s="4">
@@ -6638,29 +6797,31 @@
         <v>443</v>
       </c>
       <c r="H108" s="7"/>
-      <c r="I108" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J108" s="14"/>
-      <c r="K108" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L108" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M108" s="15"/>
+      <c r="I108" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J108" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K108" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L108" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M108" s="11"/>
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
-      <c r="S108" s="5"/>
-    </row>
-    <row r="109" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S108" s="11"/>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>2</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C109" s="4">
@@ -6679,29 +6840,31 @@
         <v>447</v>
       </c>
       <c r="H109" s="7"/>
-      <c r="I109" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J109" s="14"/>
-      <c r="K109" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L109" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M109" s="15"/>
+      <c r="I109" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J109" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K109" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L109" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M109" s="11"/>
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
       <c r="R109" s="7"/>
-      <c r="S109" s="5"/>
-    </row>
-    <row r="110" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S109" s="11"/>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>2</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C110" s="4">
@@ -6720,29 +6883,31 @@
         <v>451</v>
       </c>
       <c r="H110" s="7"/>
-      <c r="I110" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J110" s="14"/>
-      <c r="K110" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L110" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M110" s="15"/>
+      <c r="I110" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J110" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K110" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L110" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M110" s="11"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
-    </row>
-    <row r="111" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S110" s="11"/>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>2</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C111" s="4">
@@ -6761,29 +6926,31 @@
         <v>455</v>
       </c>
       <c r="H111" s="7"/>
-      <c r="I111" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J111" s="14"/>
-      <c r="K111" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L111" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M111" s="15"/>
+      <c r="I111" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J111" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K111" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L111" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M111" s="11"/>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
-    </row>
-    <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S111" s="11"/>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>2</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C112" s="4">
@@ -6802,23 +6969,29 @@
         <v>459</v>
       </c>
       <c r="H112" s="7"/>
-      <c r="I112" s="13"/>
-      <c r="J112" s="13"/>
-      <c r="K112" s="13"/>
-      <c r="L112" s="15"/>
-      <c r="M112" s="15"/>
+      <c r="I112" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="J112" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="K112" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
-    </row>
-    <row r="113" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S112" s="11"/>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>2</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C113" s="4">
@@ -6837,33 +7010,33 @@
         <v>463</v>
       </c>
       <c r="H113" s="7"/>
-      <c r="I113" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="J113" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="K113" s="13" t="s">
+      <c r="I113" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J113" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="K113" s="12" t="s">
         <v>9</v>
       </c>
       <c r="L113" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="M113" s="11" t="s">
-        <v>548</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="M113" s="8"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
-    </row>
-    <row r="114" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S113" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>2</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C114" s="4">
@@ -6882,29 +7055,31 @@
         <v>467</v>
       </c>
       <c r="H114" s="7"/>
-      <c r="I114" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J114" s="14"/>
-      <c r="K114" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L114" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M114" s="15"/>
+      <c r="I114" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J114" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K114" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L114" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M114" s="11"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
-    </row>
-    <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S114" s="11"/>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>2</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C115" s="4">
@@ -6923,31 +7098,31 @@
         <v>471</v>
       </c>
       <c r="H115" s="7"/>
-      <c r="I115" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="J115" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="K115" s="13" t="s">
+      <c r="I115" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J115" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="K115" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L115" s="17" t="s">
-        <v>553</v>
-      </c>
-      <c r="M115" s="15"/>
+      <c r="L115" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="M115" s="11"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
-    </row>
-    <row r="116" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S115" s="11"/>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>2</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C116" s="4">
@@ -6966,23 +7141,29 @@
         <v>475</v>
       </c>
       <c r="H116" s="7"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="13"/>
-      <c r="K116" s="13"/>
-      <c r="L116" s="15"/>
-      <c r="M116" s="15"/>
+      <c r="I116" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="J116" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="K116" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
-    </row>
-    <row r="117" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S116" s="11"/>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>2</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C117" s="4">
@@ -7001,29 +7182,31 @@
         <v>479</v>
       </c>
       <c r="H117" s="7"/>
-      <c r="I117" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J117" s="14"/>
-      <c r="K117" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L117" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M117" s="11"/>
+      <c r="I117" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J117" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K117" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L117" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M117" s="8"/>
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
-    </row>
-    <row r="118" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S117" s="8"/>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>2</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C118" s="4">
@@ -7042,23 +7225,29 @@
         <v>483</v>
       </c>
       <c r="H118" s="7"/>
-      <c r="I118" s="13"/>
-      <c r="J118" s="13"/>
-      <c r="K118" s="13"/>
-      <c r="L118" s="15"/>
-      <c r="M118" s="15"/>
+      <c r="I118" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="J118" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="K118" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
-    </row>
-    <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S118" s="11"/>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>2</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C119" s="4">
@@ -7077,31 +7266,31 @@
         <v>487</v>
       </c>
       <c r="H119" s="7"/>
-      <c r="I119" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="J119" s="14" t="s">
-        <v>538</v>
-      </c>
-      <c r="K119" s="14" t="s">
+      <c r="I119" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J119" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="K119" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L119" s="17" t="s">
-        <v>551</v>
-      </c>
-      <c r="M119" s="15"/>
+      <c r="L119" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="M119" s="11"/>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
-      <c r="S119" s="5"/>
-    </row>
-    <row r="120" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S119" s="11"/>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>2</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C120" s="4">
@@ -7120,29 +7309,31 @@
         <v>490</v>
       </c>
       <c r="H120" s="7"/>
-      <c r="I120" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J120" s="14"/>
-      <c r="K120" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L120" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M120" s="15"/>
+      <c r="I120" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J120" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K120" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L120" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M120" s="11"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
-      <c r="S120" s="5"/>
-    </row>
-    <row r="121" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S120" s="11"/>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>2</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C121" s="4">
@@ -7161,31 +7352,31 @@
         <v>494</v>
       </c>
       <c r="H121" s="7"/>
-      <c r="I121" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="J121" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="K121" s="13" t="s">
+      <c r="I121" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J121" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="K121" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L121" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="M121" s="15"/>
+      <c r="L121" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="M121" s="11"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
-      <c r="S121" s="5"/>
-    </row>
-    <row r="122" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S121" s="11"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>2</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C122" s="4">
@@ -7204,29 +7395,31 @@
         <v>498</v>
       </c>
       <c r="H122" s="7"/>
-      <c r="I122" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J122" s="14"/>
-      <c r="K122" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L122" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M122" s="15"/>
+      <c r="I122" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J122" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K122" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L122" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M122" s="11"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
-      <c r="S122" s="5"/>
-    </row>
-    <row r="123" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S122" s="11"/>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>2</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C123" s="4">
@@ -7245,31 +7438,31 @@
         <v>502</v>
       </c>
       <c r="H123" s="7"/>
-      <c r="I123" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="J123" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="K123" s="13" t="s">
+      <c r="I123" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J123" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="K123" s="12" t="s">
         <v>9</v>
       </c>
       <c r="L123" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="M123" s="15"/>
+        <v>550</v>
+      </c>
+      <c r="M123" s="11"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="5"/>
-    </row>
-    <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S123" s="11"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>2</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C124" s="4">
@@ -7288,31 +7481,31 @@
         <v>506</v>
       </c>
       <c r="H124" s="7"/>
-      <c r="I124" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="J124" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="K124" s="13" t="s">
+      <c r="I124" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J124" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="K124" s="12" t="s">
         <v>9</v>
       </c>
       <c r="L124" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="M124" s="15"/>
+        <v>550</v>
+      </c>
+      <c r="M124" s="11"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
-      <c r="S124" s="5"/>
-    </row>
-    <row r="125" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S124" s="11"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>2</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C125" s="4">
@@ -7331,29 +7524,31 @@
         <v>510</v>
       </c>
       <c r="H125" s="7"/>
-      <c r="I125" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J125" s="14"/>
-      <c r="K125" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L125" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M125" s="15"/>
+      <c r="I125" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J125" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K125" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L125" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M125" s="11"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="5"/>
-    </row>
-    <row r="126" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S125" s="11"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>2</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C126" s="4">
@@ -7372,31 +7567,31 @@
         <v>514</v>
       </c>
       <c r="H126" s="7"/>
-      <c r="I126" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="J126" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="K126" s="13" t="s">
+      <c r="I126" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J126" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="K126" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L126" s="17" t="s">
-        <v>550</v>
-      </c>
-      <c r="M126" s="15"/>
+      <c r="L126" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="M126" s="11"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="5"/>
-    </row>
-    <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S126" s="11"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>2</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C127" s="4">
@@ -7415,29 +7610,31 @@
         <v>518</v>
       </c>
       <c r="H127" s="7"/>
-      <c r="I127" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J127" s="14"/>
-      <c r="K127" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="L127" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M127" s="15"/>
+      <c r="I127" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J127" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="K127" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="L127" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="M127" s="11"/>
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
-      <c r="S127" s="5"/>
-    </row>
-    <row r="128" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S127" s="11"/>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>2</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C128" s="4">
@@ -7456,23 +7653,29 @@
         <v>522</v>
       </c>
       <c r="H128" s="7"/>
-      <c r="I128" s="13"/>
-      <c r="J128" s="13"/>
-      <c r="K128" s="13"/>
-      <c r="L128" s="15"/>
-      <c r="M128" s="15"/>
+      <c r="I128" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="J128" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="K128" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
-      <c r="S128" s="5"/>
-    </row>
-    <row r="129" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S128" s="11"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>2</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C129" s="4">
@@ -7491,23 +7694,29 @@
         <v>526</v>
       </c>
       <c r="H129" s="7"/>
-      <c r="I129" s="13"/>
-      <c r="J129" s="13"/>
-      <c r="K129" s="13"/>
-      <c r="L129" s="15"/>
-      <c r="M129" s="15"/>
+      <c r="I129" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="J129" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="K129" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
-      <c r="S129" s="5"/>
-    </row>
-    <row r="130" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S129" s="11"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>2</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C130" s="4">
@@ -7526,23 +7735,29 @@
         <v>530</v>
       </c>
       <c r="H130" s="7"/>
-      <c r="I130" s="13"/>
-      <c r="J130" s="13"/>
-      <c r="K130" s="13"/>
-      <c r="L130" s="15"/>
-      <c r="M130" s="15"/>
+      <c r="I130" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="J130" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="K130" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="5"/>
-    </row>
-    <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S130" s="11"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>2</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C131" s="4">
@@ -7561,25 +7776,25 @@
         <v>534</v>
       </c>
       <c r="H131" s="7"/>
-      <c r="I131" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="J131" s="14" t="s">
-        <v>538</v>
-      </c>
-      <c r="K131" s="14" t="s">
+      <c r="I131" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J131" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="K131" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L131" s="17" t="s">
-        <v>551</v>
-      </c>
-      <c r="M131" s="15"/>
+      <c r="L131" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="M131" s="11"/>
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
-      <c r="S131" s="5"/>
+      <c r="S131" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:S131"/>
